--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.223816</v>
+        <v>0.2231716666666667</v>
       </c>
       <c r="N2">
-        <v>0.6714479999999999</v>
+        <v>0.669515</v>
       </c>
       <c r="O2">
-        <v>0.02444349385118431</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="P2">
-        <v>0.02492041180987196</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="Q2">
-        <v>0.2113399739226667</v>
+        <v>0.2001099249294444</v>
       </c>
       <c r="R2">
-        <v>1.902059765304</v>
+        <v>1.800989324365</v>
       </c>
       <c r="S2">
-        <v>0.01007853763732434</v>
+        <v>0.007675809312529375</v>
       </c>
       <c r="T2">
-        <v>0.01097835765119358</v>
+        <v>0.008364010581703671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.28012</v>
+        <v>0.223816</v>
       </c>
       <c r="N3">
-        <v>9.840359999999999</v>
+        <v>0.671448</v>
       </c>
       <c r="O3">
-        <v>0.3582299435748413</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="P3">
-        <v>0.3652193819288935</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="Q3">
-        <v>3.097278457586667</v>
+        <v>0.2006876752186667</v>
       </c>
       <c r="R3">
-        <v>27.87550611828</v>
+        <v>1.806189076968</v>
       </c>
       <c r="S3">
-        <v>0.1477053154150745</v>
+        <v>0.007697970637370671</v>
       </c>
       <c r="T3">
-        <v>0.1608925657630959</v>
+        <v>0.008388158856879633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5256995</v>
+        <v>4.462895666666667</v>
       </c>
       <c r="N4">
-        <v>1.051399</v>
+        <v>13.388687</v>
       </c>
       <c r="O4">
-        <v>0.05741293069226805</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="P4">
-        <v>0.03902207774315743</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="Q4">
-        <v>0.4963957832378333</v>
+        <v>4.001716392424112</v>
       </c>
       <c r="R4">
-        <v>2.978374699427</v>
+        <v>36.015447531817</v>
       </c>
       <c r="S4">
-        <v>0.02367249078114428</v>
+        <v>0.1534976936396362</v>
       </c>
       <c r="T4">
-        <v>0.01719065997084998</v>
+        <v>0.1672600610040378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.126829666666667</v>
+        <v>4.822141666666667</v>
       </c>
       <c r="N5">
-        <v>15.380489</v>
+        <v>14.466425</v>
       </c>
       <c r="O5">
-        <v>0.5599136318817063</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="P5">
-        <v>0.5708381285180771</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="Q5">
-        <v>4.841048218444111</v>
+        <v>4.323839228019445</v>
       </c>
       <c r="R5">
-        <v>43.569433965997</v>
+        <v>38.914553052175</v>
       </c>
       <c r="S5">
-        <v>0.2308635028579325</v>
+        <v>0.1658536697968048</v>
       </c>
       <c r="T5">
-        <v>0.2514751836214401</v>
+        <v>0.1807238549986521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H6">
         <v>2.048396</v>
       </c>
       <c r="I6">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J6">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.223816</v>
+        <v>0.2231716666666667</v>
       </c>
       <c r="N6">
-        <v>0.6714479999999999</v>
+        <v>0.669515</v>
       </c>
       <c r="O6">
-        <v>0.02444349385118431</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="P6">
-        <v>0.02492041180987196</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="Q6">
-        <v>0.1528212663786667</v>
+        <v>0.1523813164377778</v>
       </c>
       <c r="R6">
-        <v>1.375391397408</v>
+        <v>1.37143184794</v>
       </c>
       <c r="S6">
-        <v>0.007287854050481504</v>
+        <v>0.005845037062409473</v>
       </c>
       <c r="T6">
-        <v>0.007938519570496586</v>
+        <v>0.006369094104597179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.28012</v>
+        <v>0.223816</v>
       </c>
       <c r="N7">
-        <v>9.840359999999999</v>
+        <v>0.671448</v>
       </c>
       <c r="O7">
-        <v>0.3582299435748413</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="P7">
-        <v>0.3652193819288935</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="Q7">
-        <v>2.239661562506667</v>
+        <v>0.1528212663786667</v>
       </c>
       <c r="R7">
-        <v>20.15695406256</v>
+        <v>1.375391397408</v>
       </c>
       <c r="S7">
-        <v>0.1068066439757005</v>
+        <v>0.005861912646439164</v>
       </c>
       <c r="T7">
-        <v>0.1163424277691374</v>
+        <v>0.006387482727561844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5256995</v>
+        <v>4.462895666666667</v>
       </c>
       <c r="N8">
-        <v>1.051399</v>
+        <v>13.388687</v>
       </c>
       <c r="O8">
-        <v>0.05741293069226805</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="P8">
-        <v>0.03902207774315743</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="Q8">
-        <v>0.3589469176673334</v>
+        <v>3.047259210672445</v>
       </c>
       <c r="R8">
-        <v>2.153681506004</v>
+        <v>27.425332896052</v>
       </c>
       <c r="S8">
-        <v>0.01711772719739027</v>
+        <v>0.1168866593459443</v>
       </c>
       <c r="T8">
-        <v>0.01243067450927032</v>
+        <v>0.1273665376279798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.126829666666667</v>
+        <v>4.822141666666667</v>
       </c>
       <c r="N9">
-        <v>15.380489</v>
+        <v>14.466425</v>
       </c>
       <c r="O9">
-        <v>0.5599136318817063</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="P9">
-        <v>0.5708381285180771</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="Q9">
-        <v>3.500592460627112</v>
+        <v>3.292551900477778</v>
       </c>
       <c r="R9">
-        <v>31.50533214564401</v>
+        <v>29.6329671043</v>
       </c>
       <c r="S9">
-        <v>0.1669388531308995</v>
+        <v>0.1262955875306259</v>
       </c>
       <c r="T9">
-        <v>0.1818432893244264</v>
+        <v>0.1376190558569969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H10">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I10">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J10">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.223816</v>
+        <v>0.2231716666666667</v>
       </c>
       <c r="N10">
-        <v>0.6714479999999999</v>
+        <v>0.669515</v>
       </c>
       <c r="O10">
-        <v>0.02444349385118431</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="P10">
-        <v>0.02492041180987196</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="Q10">
-        <v>0.016383107384</v>
+        <v>0.04940328867833333</v>
       </c>
       <c r="R10">
-        <v>0.147447966456</v>
+        <v>0.444629598105</v>
       </c>
       <c r="S10">
-        <v>0.0007812897925613927</v>
+        <v>0.001895009572565836</v>
       </c>
       <c r="T10">
-        <v>0.0008510439788606979</v>
+        <v>0.002064913219183068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.221369</v>
+      </c>
+      <c r="H11">
+        <v>0.664107</v>
+      </c>
+      <c r="I11">
+        <v>0.08263719499391366</v>
+      </c>
+      <c r="J11">
+        <v>0.09004631892602898</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.073199</v>
-      </c>
-      <c r="H11">
-        <v>0.219597</v>
-      </c>
-      <c r="I11">
-        <v>0.03196309812819735</v>
-      </c>
-      <c r="J11">
-        <v>0.03415047814432848</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>3.28012</v>
+        <v>0.223816</v>
       </c>
       <c r="N11">
-        <v>9.840359999999999</v>
+        <v>0.671448</v>
       </c>
       <c r="O11">
-        <v>0.3582299435748413</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="P11">
-        <v>0.3652193819288935</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="Q11">
-        <v>0.24010150388</v>
+        <v>0.04954592410400001</v>
       </c>
       <c r="R11">
-        <v>2.16091353492</v>
+        <v>0.4459133169360001</v>
       </c>
       <c r="S11">
-        <v>0.01145013883894125</v>
+        <v>0.001900480777100119</v>
       </c>
       <c r="T11">
-        <v>0.01247241652044783</v>
+        <v>0.002070874963509455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5256995</v>
+        <v>4.462895666666667</v>
       </c>
       <c r="N12">
-        <v>1.051399</v>
+        <v>13.388687</v>
       </c>
       <c r="O12">
-        <v>0.05741293069226805</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="P12">
-        <v>0.03902207774315743</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="Q12">
-        <v>0.0384806777005</v>
+        <v>0.9879467508343335</v>
       </c>
       <c r="R12">
-        <v>0.230884066203</v>
+        <v>8.891520757509001</v>
       </c>
       <c r="S12">
-        <v>0.001835095137544357</v>
+        <v>0.03789562598162517</v>
       </c>
       <c r="T12">
-        <v>0.001332622613113985</v>
+        <v>0.04129328958097204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.126829666666667</v>
+        <v>4.822141666666667</v>
       </c>
       <c r="N13">
-        <v>15.380489</v>
+        <v>14.466425</v>
       </c>
       <c r="O13">
-        <v>0.5599136318817063</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="P13">
-        <v>0.5708381285180771</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="Q13">
-        <v>0.3752788047703333</v>
+        <v>1.067472678608334</v>
       </c>
       <c r="R13">
-        <v>3.377509242933</v>
+        <v>9.607254107475001</v>
       </c>
       <c r="S13">
-        <v>0.01789657435915035</v>
+        <v>0.04094607866262254</v>
       </c>
       <c r="T13">
-        <v>0.01949439503190597</v>
+        <v>0.04461724116236442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H14">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I14">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J14">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.223816</v>
+        <v>0.2231716666666667</v>
       </c>
       <c r="N14">
-        <v>0.6714479999999999</v>
+        <v>0.669515</v>
       </c>
       <c r="O14">
-        <v>0.02444349385118431</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="P14">
-        <v>0.02492041180987196</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="Q14">
-        <v>0.09849090224799999</v>
+        <v>0.1475714834825</v>
       </c>
       <c r="R14">
-        <v>0.5909454134879999</v>
+        <v>0.885428900895</v>
       </c>
       <c r="S14">
-        <v>0.004696907294990622</v>
+        <v>0.005660541662679305</v>
       </c>
       <c r="T14">
-        <v>0.003410833991626358</v>
+        <v>0.00411203808720142</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H15">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I15">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J15">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.28012</v>
+        <v>0.223816</v>
       </c>
       <c r="N15">
-        <v>9.840359999999999</v>
+        <v>0.671448</v>
       </c>
       <c r="O15">
-        <v>0.3582299435748413</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="P15">
-        <v>0.3652193819288935</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="Q15">
-        <v>1.44342664636</v>
+        <v>0.147997546644</v>
       </c>
       <c r="R15">
-        <v>8.660559878159999</v>
+        <v>0.8879852798640001</v>
       </c>
       <c r="S15">
-        <v>0.0688352019357179</v>
+        <v>0.005676884578124008</v>
       </c>
       <c r="T15">
-        <v>0.04998724305953752</v>
+        <v>0.004123910217956609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H16">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I16">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J16">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5256995</v>
+        <v>4.462895666666667</v>
       </c>
       <c r="N16">
-        <v>1.051399</v>
+        <v>13.388687</v>
       </c>
       <c r="O16">
-        <v>0.05741293069226805</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="P16">
-        <v>0.03902207774315743</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="Q16">
-        <v>0.2313356420735</v>
+        <v>2.9510741394485</v>
       </c>
       <c r="R16">
-        <v>0.925342568294</v>
+        <v>17.706444836691</v>
       </c>
       <c r="S16">
-        <v>0.01103210591076117</v>
+        <v>0.1131971958388876</v>
       </c>
       <c r="T16">
-        <v>0.005340916121519405</v>
+        <v>0.08223085499446393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.126829666666667</v>
+        <v>4.822141666666667</v>
       </c>
       <c r="N17">
-        <v>15.380489</v>
+        <v>14.466425</v>
       </c>
       <c r="O17">
-        <v>0.5599136318817063</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="P17">
-        <v>0.5708381285180771</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="Q17">
-        <v>2.256076775305667</v>
+        <v>3.1886242995875</v>
       </c>
       <c r="R17">
-        <v>13.536460651834</v>
+        <v>19.131745797525</v>
       </c>
       <c r="S17">
-        <v>0.1075894648351369</v>
+        <v>0.1223091363487382</v>
       </c>
       <c r="T17">
-        <v>0.07813009300651026</v>
+        <v>0.08885012372484978</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H18">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I18">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J18">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.223816</v>
+        <v>0.2231716666666667</v>
       </c>
       <c r="N18">
-        <v>0.6714479999999999</v>
+        <v>0.669515</v>
       </c>
       <c r="O18">
-        <v>0.02444349385118431</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="P18">
-        <v>0.02492041180987196</v>
+        <v>0.02293167831634903</v>
       </c>
       <c r="Q18">
-        <v>0.03352793522133333</v>
+        <v>0.04836754897333333</v>
       </c>
       <c r="R18">
-        <v>0.301751416992</v>
+        <v>0.43530794076</v>
       </c>
       <c r="S18">
-        <v>0.001598905075826446</v>
+        <v>0.001855280706165039</v>
       </c>
       <c r="T18">
-        <v>0.001741656617694746</v>
+        <v>0.002021622323663692</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,55 +1585,55 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.216728</v>
+      </c>
+      <c r="H19">
+        <v>0.650184</v>
+      </c>
+      <c r="I19">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J19">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.1498013333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.449404</v>
-      </c>
-      <c r="I19">
-        <v>0.0654122968492484</v>
-      </c>
-      <c r="J19">
-        <v>0.0698887574965678</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>3.28012</v>
+        <v>0.223816</v>
       </c>
       <c r="N19">
-        <v>9.840359999999999</v>
+        <v>0.671448</v>
       </c>
       <c r="O19">
-        <v>0.3582299435748413</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="P19">
-        <v>0.3652193819288935</v>
+        <v>0.02299788584595704</v>
       </c>
       <c r="Q19">
-        <v>0.4913663494933332</v>
+        <v>0.048507194048</v>
       </c>
       <c r="R19">
-        <v>4.422297145439999</v>
+        <v>0.436564746432</v>
       </c>
       <c r="S19">
-        <v>0.02343264340940702</v>
+        <v>0.001860637206923076</v>
       </c>
       <c r="T19">
-        <v>0.02552472881667481</v>
+        <v>0.002027459080049498</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H20">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I20">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J20">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5256995</v>
+        <v>4.462895666666667</v>
       </c>
       <c r="N20">
-        <v>1.051399</v>
+        <v>13.388687</v>
       </c>
       <c r="O20">
-        <v>0.05741293069226805</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="P20">
-        <v>0.03902207774315743</v>
+        <v>0.4585783191747521</v>
       </c>
       <c r="Q20">
-        <v>0.07875048603266666</v>
+        <v>0.9672344520453334</v>
       </c>
       <c r="R20">
-        <v>0.4725029161959999</v>
+        <v>8.705110068408001</v>
       </c>
       <c r="S20">
-        <v>0.003755511665427962</v>
+        <v>0.03710114436865893</v>
       </c>
       <c r="T20">
-        <v>0.002727204528403746</v>
+        <v>0.04042757596729853</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H21">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I21">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J21">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.126829666666667</v>
+        <v>4.822141666666667</v>
       </c>
       <c r="N21">
-        <v>15.380489</v>
+        <v>14.466425</v>
       </c>
       <c r="O21">
-        <v>0.5599136318817063</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="P21">
-        <v>0.5708381285180771</v>
+        <v>0.4954921166629419</v>
       </c>
       <c r="Q21">
-        <v>0.7680059198395555</v>
+        <v>1.045093119133333</v>
       </c>
       <c r="R21">
-        <v>6.912053278556</v>
+        <v>9.4058380722</v>
       </c>
       <c r="S21">
-        <v>0.03662523669858696</v>
+        <v>0.04008764432415043</v>
       </c>
       <c r="T21">
-        <v>0.0398951675337945</v>
+        <v>0.04368184092007877</v>
       </c>
     </row>
   </sheetData>
